--- a/SuraClaims/GeneracionSiniestroAPUber.xlsx
+++ b/SuraClaims/GeneracionSiniestroAPUber.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Sura - Claims\DataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2644338-E961-405D-8DD3-D939DE09CBCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,15 +84,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>ssurgwsoadev4.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>https://ssurgwsoadev4.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
-  </si>
-  <si>
-    <t>31/03/2021</t>
-  </si>
-  <si>
     <t>aseguradosgw@gmail.com</t>
   </si>
   <si>
@@ -114,12 +106,21 @@
   </si>
   <si>
     <t>29/10/2020</t>
+  </si>
+  <si>
+    <t>23/06/2022</t>
+  </si>
+  <si>
+    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
+  </si>
+  <si>
+    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,11 +453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,10 +520,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -531,13 +532,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="4">
-        <v>12420005518</v>
+        <v>12112002070</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
@@ -546,19 +547,19 @@
         <v>32039201</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
       </c>
       <c r="O2">
         <v>967</v>
@@ -566,10 +567,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -584,7 +585,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -593,19 +594,19 @@
         <v>32039201</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
         <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
       </c>
       <c r="O3">
         <v>967</v>
@@ -613,10 +614,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{35D224BB-897A-4B06-9768-8B3C5D203A45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/SuraClaims/GeneracionSiniestroAPUber.xlsx
+++ b/SuraClaims/GeneracionSiniestroAPUber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2644338-E961-405D-8DD3-D939DE09CBCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E229B0-CFEE-4136-BD7D-B75C62D603C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>Localidad</t>
   </si>
   <si>
-    <t>Numero</t>
-  </si>
-  <si>
     <t>Provincia</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
+  </si>
+  <si>
+    <t>NumeroCalle</t>
   </si>
 </sst>
 </file>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,10 +473,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
         <v>14</v>
@@ -515,15 +515,15 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
@@ -547,19 +547,19 @@
         <v>32039201</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
       </c>
       <c r="O2">
         <v>967</v>
@@ -567,10 +567,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -585,7 +585,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -594,19 +594,19 @@
         <v>32039201</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
       </c>
       <c r="O3">
         <v>967</v>

--- a/SuraClaims/GeneracionSiniestroAPUber.xlsx
+++ b/SuraClaims/GeneracionSiniestroAPUber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E229B0-CFEE-4136-BD7D-B75C62D603C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555ED2F0-CA72-4B22-9531-E6B3B5D79A3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,13 +105,13 @@
     <t>29/10/2020</t>
   </si>
   <si>
-    <t>23/06/2022</t>
-  </si>
-  <si>
     <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
   </si>
   <si>
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
+  </si>
+  <si>
+    <t>19/03/2021</t>
   </si>
   <si>
     <t>NumeroCalle</t>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,10 +520,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -532,13 +532,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="4">
-        <v>12112002070</v>
+        <v>12112002082</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>

--- a/SuraClaims/GeneracionSiniestroAPUber.xlsx
+++ b/SuraClaims/GeneracionSiniestroAPUber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555ED2F0-CA72-4B22-9531-E6B3B5D79A3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC18109-EEF5-4D96-8C5F-C4B0461879E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Usuario</t>
   </si>
@@ -96,15 +96,6 @@
     <t>Invalidez Parcial Permanente (AT)</t>
   </si>
   <si>
-    <t>i-preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>https://i-preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
-  </si>
-  <si>
-    <t>29/10/2020</t>
-  </si>
-  <si>
     <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
   </si>
   <si>
@@ -115,6 +106,18 @@
   </si>
   <si>
     <t>NumeroCalle</t>
+  </si>
+  <si>
+    <t>12112001793</t>
+  </si>
+  <si>
+    <t>10/04/2021</t>
+  </si>
+  <si>
+    <t>preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
   </si>
 </sst>
 </file>
@@ -457,15 +460,16 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="2" width="55.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -515,15 +519,15 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -538,7 +542,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
@@ -567,10 +571,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -578,14 +582,14 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>12112001527</v>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>

--- a/SuraClaims/GeneracionSiniestroAPUber.xlsx
+++ b/SuraClaims/GeneracionSiniestroAPUber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC18109-EEF5-4D96-8C5F-C4B0461879E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADDFA91-AB35-47D9-A125-6A31F3C2E87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Usuario</t>
   </si>
@@ -102,9 +102,6 @@
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
   </si>
   <si>
-    <t>19/03/2021</t>
-  </si>
-  <si>
     <t>NumeroCalle</t>
   </si>
   <si>
@@ -118,6 +115,12 @@
   </si>
   <si>
     <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
+  </si>
+  <si>
+    <t>12112002379</t>
+  </si>
+  <si>
+    <t>27/05/2021</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -460,7 +463,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +522,7 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -535,14 +538,14 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
-        <v>12112002082</v>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
@@ -571,10 +574,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -583,13 +586,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>

--- a/SuraClaims/GeneracionSiniestroAPUber.xlsx
+++ b/SuraClaims/GeneracionSiniestroAPUber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADDFA91-AB35-47D9-A125-6A31F3C2E87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3E8F72-9B8C-4C7E-9656-996F8A942CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,10 +117,10 @@
     <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
   </si>
   <si>
-    <t>12112002379</t>
-  </si>
-  <si>
-    <t>27/05/2021</t>
+    <t>12112002435</t>
+  </si>
+  <si>
+    <t>23/06/2021</t>
   </si>
 </sst>
 </file>
